--- a/src/compras/resumido_excel.xlsx
+++ b/src/compras/resumido_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3123270099</t>
+          <t>3123441654</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -471,19 +471,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>677.520,00</t>
+          <t>5.599.320,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3123270344</t>
+          <t>3123441685</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,19 +491,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>19.040,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3123270530</t>
+          <t>3123441740</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -511,19 +511,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>617.520,00</t>
+          <t>2.775.600,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3123271042</t>
+          <t>3123441789</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -531,19 +531,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>549.520,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3123271222</t>
+          <t>3123441937</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -551,19 +551,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>357.000,00</t>
+          <t>650.520,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3123271816</t>
+          <t>3123442039</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -571,19 +571,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.010.560,00</t>
+          <t>827.900,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3123272443</t>
+          <t>3123442059</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -591,19 +591,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>594.520,00</t>
+          <t>650.520,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3123272877</t>
+          <t>3123442142</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,19 +611,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>677.520,00</t>
+          <t>18.214.900,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3123273235</t>
+          <t>3123442209</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -631,19 +631,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.861.300,00</t>
+          <t>523.900,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3123273464</t>
+          <t>3123442254</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -651,19 +651,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>605.520,00</t>
+          <t>51.185.340,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3123273678</t>
+          <t>3123442283</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -671,19 +671,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>619.900,00</t>
+          <t>764.900,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3123273708</t>
+          <t>3123442316</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -691,19 +691,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>119.000,00</t>
+          <t>670.520,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3123275115</t>
+          <t>3123442435</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -711,19 +711,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.634.220,00</t>
+          <t>753.040,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3123275142</t>
+          <t>3123442519</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -731,19 +731,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>119.000,00</t>
+          <t>12.424.480,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3123275159</t>
+          <t>3123442600</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -751,19 +751,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.234.401,00</t>
+          <t>40.460,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3123275229</t>
+          <t>3123442858</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -771,19 +771,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>591.900,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3123275355</t>
+          <t>3123442887</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -791,19 +791,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>59.500,00</t>
+          <t>589.520,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3123275652</t>
+          <t>3123442951</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -811,19 +811,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>706.520,00</t>
+          <t>650.520,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3123275667</t>
+          <t>3123442994</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -831,19 +831,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.777.400,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3123275728</t>
+          <t>3123443012</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -851,19 +851,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>739.900,00</t>
+          <t>331.180.000,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3123275867</t>
+          <t>3123443050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -871,19 +871,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.986.700,00</t>
+          <t>748.900,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3123275873</t>
+          <t>3123443153</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -891,19 +891,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>377.900,00</t>
+          <t>622.900,00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3123275979</t>
+          <t>3123443172</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -911,19 +911,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>739.900,00</t>
+          <t>394.560,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3123276183</t>
+          <t>3123443180</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -931,19 +931,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>672.900,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3123276277</t>
+          <t>3123443226</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -951,19 +951,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>11.900,00</t>
+          <t>764.900,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3123276311</t>
+          <t>3123443522</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -971,19 +971,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>755.900,00</t>
+          <t>719.900,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3123276860</t>
+          <t>3123443751</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -991,19 +991,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>377.900,00</t>
+          <t>589.520,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3123277002</t>
+          <t>3123443771</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>661.900,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3123277014</t>
+          <t>3123443826</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.222.200,00</t>
+          <t>598.520,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3123277123</t>
+          <t>3123443827</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.078.460,00</t>
+          <t>3.122.500,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3123277439</t>
+          <t>3123444142</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1071,19 +1071,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>230.520,00</t>
+          <t>969.800,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3123277452</t>
+          <t>3123444648</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>598.520,00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3123277544</t>
+          <t>3123445011</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>119.000,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3123277674</t>
+          <t>3123445511</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>782.520,00</t>
+          <t>591.900,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3123277925</t>
+          <t>3123445646</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1151,19 +1151,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.099.200,00</t>
+          <t>24.838.500,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3123278019</t>
+          <t>3123445983</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1171,19 +1171,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>825.520,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3123278025</t>
+          <t>3123446186</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1191,19 +1191,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>677.520,00</t>
+          <t>23.580.800,00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3123278064</t>
+          <t>3123446705</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1211,19 +1211,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>646.520,00</t>
+          <t>748.900,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3123278434</t>
+          <t>3123447641</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1231,19 +1231,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.297.800,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3123278598</t>
+          <t>3123447686</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1251,19 +1251,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>607.900,00</t>
+          <t>2.645.960,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3123278632</t>
+          <t>3123447787</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>607.900,00</t>
+          <t>4.909.780,00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3123279187</t>
+          <t>3123447909</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>382.660,00</t>
+          <t>572.900,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3123279252</t>
+          <t>3123447956</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1311,19 +1311,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>706.900,00</t>
+          <t>672.900,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3123279254</t>
+          <t>3123447982</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.140,00</t>
+          <t>1.299.040,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3123279255</t>
+          <t>3123448057</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1351,19 +1351,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>473.520,00</t>
+          <t>11.829.800,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3123279279</t>
+          <t>3123448122</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1371,19 +1371,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11.657.300,00</t>
+          <t>7.140,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3123279293</t>
+          <t>3123448167</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1391,19 +1391,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>33.320,00</t>
+          <t>589.520,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3123279392</t>
+          <t>3123448332</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>350.520,00</t>
+          <t>827.900,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3123279622</t>
+          <t>3123448361</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>605.520,00</t>
+          <t>1.655.900,00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3123279669</t>
+          <t>3123448476</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1451,19 +1451,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>827.900,00</t>
+          <t>4.139.750,00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3123279831</t>
+          <t>3123448595</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1471,19 +1471,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>605.520,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3123280156</t>
+          <t>3123449221</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1491,19 +1491,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>762.520,00</t>
+          <t>378.900,00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3123280376</t>
+          <t>3123449298</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.293.040,00</t>
+          <t>1.221.040,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3123280504</t>
+          <t>3123449372</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>679.900,00</t>
+          <t>379.520,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3123280529</t>
+          <t>3123449476</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1551,19 +1551,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.105.500,00</t>
+          <t>1.498.470,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3123280537</t>
+          <t>3123449967</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1571,19 +1571,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>605.520,00</t>
+          <t>591.900,00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3123280578</t>
+          <t>3123449973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1591,19 +1591,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1.617.700,00</t>
+          <t>851.800,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3123280631</t>
+          <t>3123450169</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1611,19 +1611,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5.000,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3123280873</t>
+          <t>3123450247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>648.900,00</t>
+          <t>4.139.750,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3123280943</t>
+          <t>3123450399</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1651,19 +1651,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>473.520,00</t>
+          <t>650.520,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3123281171</t>
+          <t>3123450457</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1671,19 +1671,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>384.280,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3123281196</t>
+          <t>3123450469</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1691,19 +1691,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.549.520,00</t>
+          <t>672.900,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3123281325</t>
+          <t>3123450573</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1711,19 +1711,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>993.800,00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3123281468</t>
+          <t>3123450639</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1731,19 +1731,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>679.900,00</t>
+          <t>378.900,00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3123281661</t>
+          <t>3123450652</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1751,19 +1751,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>527.900,00</t>
+          <t>2.057.520,00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3123281807</t>
+          <t>3123450654</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.328.800,00</t>
+          <t>551.900,00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3123281847</t>
+          <t>3123450777</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>07/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1791,7 +1791,227 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>677.520,00</t>
+          <t>3.591.120,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3123450793</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>587.520,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3123450854</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>30</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>672.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3123450859</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>30</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>589.520,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3123450900</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>30</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>661.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3123450905</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.419.250,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3123450958</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>702.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3123450961</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3123450965</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>670.520,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3123451017</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>30</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>591.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3123451200</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>30</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>827.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3123451602</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>22/11/2023</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>30</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.539.600,00</t>
         </is>
       </c>
     </row>

--- a/src/compras/resumido_excel.xlsx
+++ b/src/compras/resumido_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3123441654</t>
+          <t>3119738452</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -471,19 +471,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.599.320,00</t>
+          <t>761.900,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3123441685</t>
+          <t>3119738455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,19 +491,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.040,00</t>
+          <t>1.106.850,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3123441740</t>
+          <t>3119738512</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -511,19 +511,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.775.600,00</t>
+          <t>1.665.040,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3123441789</t>
+          <t>3119738794</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -531,19 +531,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>549.520,00</t>
+          <t>397.520,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3123441937</t>
+          <t>3119739191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -551,19 +551,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>650.520,00</t>
+          <t>706.900,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3123442039</t>
+          <t>3119739283</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -571,19 +571,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>827.900,00</t>
+          <t>735.950,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3123442059</t>
+          <t>3119739378</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -591,19 +591,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>650.520,00</t>
+          <t>368.520,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3123442142</t>
+          <t>3119739693</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,19 +611,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.214.900,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3123442209</t>
+          <t>3119739729</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -631,19 +631,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>523.900,00</t>
+          <t>786.900,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3123442254</t>
+          <t>3119739731</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -651,19 +651,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.185.340,00</t>
+          <t>4.760,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3123442283</t>
+          <t>3119739908</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -671,19 +671,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>764.900,00</t>
+          <t>832.520,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3123442316</t>
+          <t>3119740210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -691,19 +691,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>670.520,00</t>
+          <t>370.900,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3123442435</t>
+          <t>3119740500</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -711,19 +711,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>753.040,00</t>
+          <t>1.842.600,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3123442519</t>
+          <t>3119740728</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -731,19 +731,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.424.480,00</t>
+          <t>6.732.900,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3123442600</t>
+          <t>3119740747</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -751,19 +751,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>40.460,00</t>
+          <t>759.520,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3123442858</t>
+          <t>3119741076</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -771,19 +771,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>591.900,00</t>
+          <t>2.880.080,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3123442887</t>
+          <t>3119741193</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -791,19 +791,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>589.520,00</t>
+          <t>370.900,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3123442951</t>
+          <t>3119741691</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -811,19 +811,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>650.520,00</t>
+          <t>786.900,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3123442994</t>
+          <t>3119741768</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -831,19 +831,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>2.492.820,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3123443012</t>
+          <t>3119742185</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -851,19 +851,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>331.180.000,00</t>
+          <t>834.900,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3123443050</t>
+          <t>3119742430</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -871,19 +871,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>748.900,00</t>
+          <t>397.520,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3123443153</t>
+          <t>3119742437</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -891,19 +891,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>622.900,00</t>
+          <t>399.900,00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3123443172</t>
+          <t>3119742443</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -911,19 +911,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>394.560,00</t>
+          <t>399.900,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3123443180</t>
+          <t>3119742554</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -931,19 +931,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>672.900,00</t>
+          <t>1.105.560,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3123443226</t>
+          <t>3119743006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -951,19 +951,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>764.900,00</t>
+          <t>1.912.050,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3123443522</t>
+          <t>3119743018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -971,19 +971,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>719.900,00</t>
+          <t>370.900,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3123443751</t>
+          <t>3119743364</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -991,19 +991,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>589.520,00</t>
+          <t>706.900,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3123443771</t>
+          <t>3119743383</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>661.900,00</t>
+          <t>503.900,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3123443826</t>
+          <t>3119743530</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>598.520,00</t>
+          <t>397.520,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3123443827</t>
+          <t>3119743604</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1051,19 +1051,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.122.500,00</t>
+          <t>704.520,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3123444142</t>
+          <t>3119744021</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1071,19 +1071,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>969.800,00</t>
+          <t>99.960,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3123444648</t>
+          <t>3119744038</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>598.520,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3123445011</t>
+          <t>3119744381</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>119.000,00</t>
+          <t>1.529.900,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3123445511</t>
+          <t>3119744439</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>591.900,00</t>
+          <t>2.380,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3123445646</t>
+          <t>3119744603</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1151,19 +1151,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>24.838.500,00</t>
+          <t>370.900,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3123445983</t>
+          <t>3119744683</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1171,19 +1171,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>825.520,00</t>
+          <t>1.471.900,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3123446186</t>
+          <t>3119744703</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1191,19 +1191,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.580.800,00</t>
+          <t>786.900,00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3123446705</t>
+          <t>3119744716</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1211,19 +1211,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>748.900,00</t>
+          <t>1.193.800,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3123447641</t>
+          <t>3119744737</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1231,19 +1231,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>121.380,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3123447686</t>
+          <t>3119745530</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1251,19 +1251,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.645.960,00</t>
+          <t>1.909.670,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3123447787</t>
+          <t>3119745725</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.909.780,00</t>
+          <t>832.520,00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3123447909</t>
+          <t>3119745918</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1291,19 +1291,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>572.900,00</t>
+          <t>834.900,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3123447956</t>
+          <t>3119746318</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1311,19 +1311,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>672.900,00</t>
+          <t>786.900,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3123447982</t>
+          <t>3119746438</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.299.040,00</t>
+          <t>1.313.520,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3123448057</t>
+          <t>3119746535</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1351,19 +1351,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11.829.800,00</t>
+          <t>593.520,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3123448122</t>
+          <t>3119746560</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1371,19 +1371,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.140,00</t>
+          <t>368.520,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3123448167</t>
+          <t>3119746583</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1391,19 +1391,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>589.520,00</t>
+          <t>1.007.800,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3123448332</t>
+          <t>3119746608</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>827.900,00</t>
+          <t>759.520,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3123448361</t>
+          <t>3119746940</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.655.900,00</t>
+          <t>200.630,00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3123448476</t>
+          <t>3119747196</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1451,19 +1451,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.139.750,00</t>
+          <t>786.900,00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3123448595</t>
+          <t>3119747256</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1471,19 +1471,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>2.579.600,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3123449221</t>
+          <t>3119747385</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1491,19 +1491,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>378.900,00</t>
+          <t>733.570,00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3123449298</t>
+          <t>3119747521</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1511,19 +1511,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1.221.040,00</t>
+          <t>733.520,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3123449372</t>
+          <t>3119748025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>379.520,00</t>
+          <t>2.642.780,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3123449476</t>
+          <t>3119748150</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1551,19 +1551,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.498.470,00</t>
+          <t>735.950,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3123449967</t>
+          <t>3119748210</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1571,19 +1571,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>591.900,00</t>
+          <t>10.462.620,00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3123449973</t>
+          <t>3119748277</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1591,19 +1591,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>851.800,00</t>
+          <t>706.900,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3123450169</t>
+          <t>3119748832</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1611,19 +1611,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>761.900,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3123450247</t>
+          <t>3119748834</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4.139.750,00</t>
+          <t>6.286.970,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3123450399</t>
+          <t>3119748861</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1651,19 +1651,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>650.520,00</t>
+          <t>2.109.560,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3123450457</t>
+          <t>3119749007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1671,19 +1671,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>368.520,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3123450469</t>
+          <t>3119749336</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1691,19 +1691,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>672.900,00</t>
+          <t>646.900,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3123450573</t>
+          <t>3119749374</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1711,307 +1711,47 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>993.800,00</t>
+          <t>399.900,00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3123450639</t>
+          <t>3119749531</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>378.900,00</t>
+          <t>2.556.080,00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3123450652</t>
+          <t>3119749532</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22/11/2023</t>
+          <t>11/01/2023</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.057.520,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>3123450654</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>30</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>551.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>3123450777</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>30</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>3.591.120,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>3123450793</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>30</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>587.520,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>3123450854</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>30</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>672.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>3123450859</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>30</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>589.520,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>3123450900</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>30</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>661.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>3123450905</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>30</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>12.419.250,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>3123450958</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>30</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>702.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>3123450961</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>30</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2.380,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>3123450965</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>30</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>670.520,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>3123451017</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>30</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>591.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>3123451200</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>30</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>827.900,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>3123451602</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>22/11/2023</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>30</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2.539.600,00</t>
+          <t>1.675.620,00</t>
         </is>
       </c>
     </row>

--- a/src/compras/resumido_excel.xlsx
+++ b/src/compras/resumido_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1322 +436,4277 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>factura</t>
+          <t>Numero</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>Fecha Factura</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>vencimiento</t>
+          <t>Cod Cliente</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Cliente</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Documento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha Venc.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pend. x Pagar </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Status Pago</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3119738452</t>
+          <t>3129902301</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>761.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pendiente 445.520,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3119738455</t>
+          <t>3129902664</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.106.850,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>533.900,00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>533.900,00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pendiente 533.900,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3119738512</t>
+          <t>3129902786</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.665.040,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3119738794</t>
+          <t>3129902835</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>397.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>954.950,00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>954.950,00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pendiente 954.950,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3119739191</t>
+          <t>3129903154</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>706.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.842.220,00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4.842.220,00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pendiente 4.842.220,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3119739283</t>
+          <t>3129903184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>735.950,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>469.520,00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>469.520,00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pendiente 469.520,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3119739378</t>
+          <t>3129903328</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>368.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>903.520,00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>903.520,00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pendiente 903.520,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3119739693</t>
+          <t>3129903493</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>939.040,00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>939.040,00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Pendiente 939.040,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3119739729</t>
+          <t>3129903638</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>786.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.063.040,00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.063.040,00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Pendiente 1.063.040,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3119739731</t>
+          <t>3129903669</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.760,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3119739908</t>
+          <t>3129903676</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>832.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3119740210</t>
+          <t>3129903750</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>370.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3119740500</t>
+          <t>3129904030</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.842.600,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.919.950,00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.919.950,00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Pendiente 1.919.950,00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3119740728</t>
+          <t>3129904105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.732.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.980.521,00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.980.521,00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pendiente 1.980.521,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3119740747</t>
+          <t>3129905100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>759.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>235.620,00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>235.620,00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Pendiente 235.620,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3119741076</t>
+          <t>3129905228</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.880.080,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>694.520,00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>694.520,00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pendiente 694.520,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3119741193</t>
+          <t>3129905290</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>370.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3119741691</t>
+          <t>3129905364</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>786.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Pendiente 769.900,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3119741768</t>
+          <t>3129905807</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.492.820,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3119742185</t>
+          <t>3129906123</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>834.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3119742430</t>
+          <t>3129906323</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>397.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3119742437</t>
+          <t>3129906668</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>399.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>531.520,00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>531.520,00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pendiente 531.520,00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3119742443</t>
+          <t>3129906742</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>399.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>747.520,00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>747.520,00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Pendiente 747.520,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3119742554</t>
+          <t>3129906801</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.105.560,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>59.500,00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>59.500,00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pendiente 59.500,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3119743006</t>
+          <t>3129907491</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.912.050,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3119743018</t>
+          <t>3129907568</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>370.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>513.900,00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>513.900,00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pendiente 513.900,00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3119743364</t>
+          <t>3129907650</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>706.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>905.900,00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>905.900,00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Pendiente 905.900,00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3119743383</t>
+          <t>3129907709</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>503.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3119743530</t>
+          <t>3129907779</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>397.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>513.900,00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>513.900,00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pendiente 513.900,00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3119743604</t>
+          <t>3129907825</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>704.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Pendiente 445.520,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3119744021</t>
+          <t>3129907904</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>99.960,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Pendiente 696.900,00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3119744038</t>
+          <t>3129907971</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.244.560,00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2.244.560,00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Pendiente 2.244.560,00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3119744381</t>
+          <t>3129908054</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.529.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>445.520,00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Pendiente 445.520,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3119744439</t>
+          <t>3129908088</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.380,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Pendiente 696.900,00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3119744603</t>
+          <t>3129908090</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>370.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>3.004.500,00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3.004.500,00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Pendiente 3.004.500,00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3119744683</t>
+          <t>3129908142</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.471.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.067.800,00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.067.800,00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Pendiente 1.067.800,00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3119744703</t>
+          <t>3129908230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>786.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Pendiente 769.900,00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3119744716</t>
+          <t>3129908234</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1.193.800,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>754.660,00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>754.660,00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Pendiente 754.660,00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3119744737</t>
+          <t>3129908376</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>121.380,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3119745530</t>
+          <t>3129908916</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.909.670,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>821.520,00</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>821.520,00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Pendiente 821.520,00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3119745725</t>
+          <t>3129909113</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>832.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19.040,00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>19.040,00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Pendiente 19.040,00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3119745918</t>
+          <t>3129909156</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>834.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>343.900,00</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>343.900,00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Pendiente 343.900,00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3119746318</t>
+          <t>3129909691</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>786.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>823.900,00</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>823.900,00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Pendiente 823.900,00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3119746438</t>
+          <t>3129909798</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.313.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3119746535</t>
+          <t>3129909879</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>593.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>42.319.150,00</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>42.319.150,00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Pendiente 42.319.150,00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3119746560</t>
+          <t>3129909960</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>368.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3.455.080,00</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>3.455.080,00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Pendiente 3.455.080,00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3119746583</t>
+          <t>3129909974</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.007.800,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>23.800,00</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>23.800,00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Pendiente 23.800,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3119746608</t>
+          <t>3129910298</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>759.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Pendiente 447.900,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3119746940</t>
+          <t>3129910512</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>200.630,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.651.800,00</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1.651.800,00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Pendiente 1.651.800,00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3119747196</t>
+          <t>3129910541</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>786.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>471.900,00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>471.900,00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Pendiente 471.900,00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3119747256</t>
+          <t>3129910951</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.579.600,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>919.900,00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>919.900,00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Pendiente 919.900,00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3119747385</t>
+          <t>3129911007</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>733.570,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>821.520,00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>821.520,00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Pendiente 821.520,00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3119747521</t>
+          <t>3129911073</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>733.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>533.900,00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>533.900,00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Pendiente 533.900,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3119748025</t>
+          <t>3129911166</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.642.780,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.860.800,00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1.860.800,00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Pendiente 1.860.800,00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3119748150</t>
+          <t>3129911183</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>735.950,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Pendiente 447.900,00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3119748210</t>
+          <t>3129911252</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10.462.620,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3119748277</t>
+          <t>3129911446</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>706.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3119748832</t>
+          <t>3129911653</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>761.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.402.800,00</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1.402.800,00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Pendiente 1.402.800,00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3119748834</t>
+          <t>3129911715</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6.286.970,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3119748861</t>
+          <t>3129911796</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.109.560,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>769.900,00</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Pendiente 769.900,00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3119749007</t>
+          <t>3129911812</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>368.520,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>860.280,00</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>860.280,00</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Pendiente 860.280,00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3119749336</t>
+          <t>3129911834</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>646.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>469.520,00</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>469.520,00</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Pendiente 469.520,00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3119749374</t>
+          <t>3129911865</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>30</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>399.900,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>471.900,00</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>471.900,00</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Pendiente 471.900,00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3119749531</t>
+          <t>3129911936</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>7</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.556.080,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1.715.800,00</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1.715.800,00</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Pendiente 1.715.800,00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3119749532</t>
+          <t>3129911987</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>7</v>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.675.620,00</t>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>172.376.870,00</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>172.376.870,00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Pendiente 172.376.870,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3129911996</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>575.280,00</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>575.280,00</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Pendiente 575.280,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3129912004</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1.375.600,00</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1.375.600,00</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Pendiente 1.375.600,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3129912264</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>855.520,00</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>855.520,00</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Pendiente 855.520,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3129912397</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1.808.090,00</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1.808.090,00</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Pendiente 1.808.090,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3129912473</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4.760,00</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4.760,00</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Pendiente 4.760,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3129912599</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Pendiente 447.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3129913110</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1.805.610,00</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1.805.610,00</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Pendiente 1.805.610,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3129913212</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>823.900,00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>823.900,00</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Pendiente 823.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3129913394</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>91.340.820,00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>91.340.820,00</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Pendiente 91.340.820,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3129913467</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3129913515</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>696.900,00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Pendiente 696.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3129913585</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>357.520,00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>357.520,00</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Pendiente 357.520,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3129913596</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>447.900,00</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Pendiente 447.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3129913641</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1.980.521,00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1.980.521,00</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Pendiente 1.980.521,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3129913678</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>857.900,00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>857.900,00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Pendiente 857.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3129913711</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1.353.800,00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1.353.800,00</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Pendiente 1.353.800,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3129914080</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3129914082</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3129914110</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3129914138</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3129914152</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2.380,00</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Pendiente 2.380,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3129914174</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>954.900,00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Pendiente 954.900,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3129914330</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1.991.560,00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1.991.560,00</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Pendiente 1.991.560,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3129914331</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1.610.560,00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1.610.560,00</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Pendiente 1.610.560,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3129914332</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>26/03/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1010000235</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TEAM COMMUNICATIONS S.A - MEDELLIN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>694.520,00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>694.520,00</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Pendiente 694.520,00</t>
         </is>
       </c>
     </row>
